--- a/evaluation/wakeword.xlsx
+++ b/evaluation/wakeword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gws8820/Documents/Workspace/Projects/securewakeword/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429A06F-0D5C-4A4B-BDD8-758997430798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21C9B1-7B33-A048-B15D-4749139D0EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27080" xr2:uid="{058B4BBC-8981-354C-B407-46B00DA50A75}"/>
   </bookViews>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -312,119 +312,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF592E42-DC3E-5147-AF52-5B078E9A1B7E}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,10 +789,10 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -802,343 +805,280 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="20">
         <v>0.5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="25">
         <v>58.41</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="26">
         <v>57.42</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="37">
+      <c r="G3" s="16">
         <v>50</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="25">
         <v>60.23</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="27">
         <v>10.94</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="38">
+      <c r="G4" s="17">
         <v>40</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="25">
         <v>61.14</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="27">
         <v>8.75</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="39">
+      <c r="G5" s="18">
         <v>30</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="15" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="28">
         <v>45.68</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="29">
         <v>15.31</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
         <v>0.4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="30">
         <v>48.18</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="31">
         <v>97.89</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="14" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="21"/>
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="25">
         <v>56.14</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="27">
         <v>17.5</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="21"/>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="25">
         <v>55.68</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="27">
         <v>12.03</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="14" t="s">
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="28">
         <v>42.5</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="27">
         <v>22.97</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="23">
         <v>0.3</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="32">
         <v>39.32</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="33">
         <v>137.27000000000001</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="14" t="s">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="21"/>
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="25">
         <v>51.59</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="27">
         <v>23.52</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="14" t="s">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="21"/>
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="25">
         <v>50.45</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="27">
         <v>20.23</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="15" t="s">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="22"/>
+      <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="34">
         <v>38.18</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="35">
         <v>34.450000000000003</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="23">
         <v>0.2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="32">
         <v>31.59</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="33">
         <v>179.38</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
-      <c r="C16" s="14" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="30">
         <v>46.14</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="36">
         <v>36.64</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="14" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="21"/>
+      <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="30">
         <v>44.55</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="27">
         <v>26.8</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="15" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="34">
         <v>34.32</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="35">
         <v>47.58</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="23">
         <v>0.1</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="37">
         <v>22.73</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="38">
         <v>265.79000000000002</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="14" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="21"/>
+      <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="32">
         <v>40</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="39">
         <v>62.89</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="14" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="32">
         <v>39.090000000000003</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="36">
         <v>42.66</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="17" t="s">
+    </row>
+    <row r="22" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="40">
         <v>27.27</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="41">
         <v>69.45</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
